--- a/Microsoft 365/Current Channel/outlooklogitemcontrols.xlsx
+++ b/Microsoft 365/Current Channel/outlooklogitemcontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcoard\OneDrive - Microsoft\Documents\RibbonX Upload\CC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RibbonXThing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A74556-656F-404B-A334-B117C2662DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{442A00CB-2DE0-4004-8A56-1F8DD877337B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="43200" windowHeight="23325"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="outlooklogitemcontrols" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13932" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13947" uniqueCount="1170">
   <si>
     <t>Policy ID</t>
   </si>
@@ -3298,6 +3298,12 @@
     <t>GroupAdjust3DModel</t>
   </si>
   <si>
+    <t>Insert3DModelFromFileConsumer</t>
+  </si>
+  <si>
+    <t>Insert3DModelFromOnlineConsumer</t>
+  </si>
+  <si>
     <t>Reset3DModelSplitButton</t>
   </si>
   <si>
@@ -3518,6 +3524,9 @@
   </si>
   <si>
     <t>OutlookFeedbackUIF</t>
+  </si>
+  <si>
+    <t>OfficeFeedbackBackstage</t>
   </si>
   <si>
     <t>Column1</t>
@@ -3531,21 +3540,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -3553,7 +3562,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3561,7 +3570,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3569,35 +3578,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3605,7 +3614,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3613,14 +3622,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3628,14 +3637,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3643,7 +3652,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3651,14 +3660,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4065,8 +4074,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I2510" totalsRowShown="0">
-  <autoFilter ref="A1:I2510"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I2513" totalsRowShown="0">
+  <autoFilter ref="A1:I2513"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Control Name"/>
     <tableColumn id="2" name="Control Type"/>
@@ -4093,39 +4102,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4177,7 +4186,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4288,13 +4297,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -4303,6 +4305,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4367,11 +4376,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4379,7 +4408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2510"/>
+  <dimension ref="A1:I2513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -4387,15 +4416,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="1" max="1" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4424,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -54918,7 +54947,7 @@
     </row>
     <row r="2322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2322" t="s">
-        <v>117</v>
+        <v>1092</v>
       </c>
       <c r="B2322" t="s">
         <v>9</v>
@@ -54936,15 +54965,15 @@
         <v>114</v>
       </c>
       <c r="H2322">
-        <v>27815</v>
+        <v>34830</v>
       </c>
     </row>
     <row r="2323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2323" t="s">
-        <v>1092</v>
+        <v>117</v>
       </c>
       <c r="B2323" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C2323" t="s">
         <v>1089</v>
@@ -54955,8 +54984,11 @@
       <c r="E2323" t="s">
         <v>1091</v>
       </c>
+      <c r="F2323" t="s">
+        <v>114</v>
+      </c>
       <c r="H2323">
-        <v>27845</v>
+        <v>27815</v>
       </c>
     </row>
     <row r="2324" spans="1:8" x14ac:dyDescent="0.25">
@@ -54976,10 +55008,10 @@
         <v>1091</v>
       </c>
       <c r="F2324" t="s">
-        <v>1092</v>
+        <v>114</v>
       </c>
       <c r="H2324">
-        <v>27846</v>
+        <v>34831</v>
       </c>
     </row>
     <row r="2325" spans="1:8" x14ac:dyDescent="0.25">
@@ -54987,7 +55019,7 @@
         <v>1094</v>
       </c>
       <c r="B2325" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C2325" t="s">
         <v>1089</v>
@@ -54998,11 +55030,8 @@
       <c r="E2325" t="s">
         <v>1091</v>
       </c>
-      <c r="F2325" t="s">
-        <v>1092</v>
-      </c>
       <c r="H2325">
-        <v>27847</v>
+        <v>27845</v>
       </c>
     </row>
     <row r="2326" spans="1:8" x14ac:dyDescent="0.25">
@@ -55010,7 +55039,7 @@
         <v>1095</v>
       </c>
       <c r="B2326" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2326" t="s">
         <v>1089</v>
@@ -55018,8 +55047,14 @@
       <c r="D2326" t="s">
         <v>1090</v>
       </c>
+      <c r="E2326" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F2326" t="s">
+        <v>1094</v>
+      </c>
       <c r="H2326">
-        <v>27843</v>
+        <v>27846</v>
       </c>
     </row>
     <row r="2327" spans="1:8" x14ac:dyDescent="0.25">
@@ -55027,7 +55062,7 @@
         <v>1096</v>
       </c>
       <c r="B2327" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2327" t="s">
         <v>1089</v>
@@ -55036,10 +55071,13 @@
         <v>1090</v>
       </c>
       <c r="E2327" t="s">
-        <v>1095</v>
+        <v>1091</v>
+      </c>
+      <c r="F2327" t="s">
+        <v>1094</v>
       </c>
       <c r="H2327">
-        <v>27891</v>
+        <v>27847</v>
       </c>
     </row>
     <row r="2328" spans="1:8" x14ac:dyDescent="0.25">
@@ -55047,7 +55085,7 @@
         <v>1097</v>
       </c>
       <c r="B2328" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="C2328" t="s">
         <v>1089</v>
@@ -55055,19 +55093,16 @@
       <c r="D2328" t="s">
         <v>1090</v>
       </c>
-      <c r="E2328" t="s">
-        <v>1095</v>
-      </c>
       <c r="H2328">
-        <v>27848</v>
+        <v>27843</v>
       </c>
     </row>
     <row r="2329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2329" t="s">
-        <v>617</v>
+        <v>1098</v>
       </c>
       <c r="B2329" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C2329" t="s">
         <v>1089</v>
@@ -55075,16 +55110,19 @@
       <c r="D2329" t="s">
         <v>1090</v>
       </c>
+      <c r="E2329" t="s">
+        <v>1097</v>
+      </c>
       <c r="H2329">
-        <v>33176</v>
+        <v>27891</v>
       </c>
     </row>
     <row r="2330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2330" t="s">
-        <v>618</v>
+        <v>1099</v>
       </c>
       <c r="B2330" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="C2330" t="s">
         <v>1089</v>
@@ -55093,15 +55131,15 @@
         <v>1090</v>
       </c>
       <c r="E2330" t="s">
-        <v>617</v>
+        <v>1097</v>
       </c>
       <c r="H2330">
-        <v>33177</v>
+        <v>27848</v>
       </c>
     </row>
     <row r="2331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2331" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B2331" t="s">
         <v>31</v>
@@ -55113,15 +55151,15 @@
         <v>1090</v>
       </c>
       <c r="H2331">
-        <v>11581</v>
+        <v>33176</v>
       </c>
     </row>
     <row r="2332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2332" t="s">
-        <v>864</v>
+        <v>618</v>
       </c>
       <c r="B2332" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2332" t="s">
         <v>1089</v>
@@ -55130,18 +55168,18 @@
         <v>1090</v>
       </c>
       <c r="E2332" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H2332">
-        <v>13142</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="2333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2333" t="s">
-        <v>795</v>
+        <v>619</v>
       </c>
       <c r="B2333" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2333" t="s">
         <v>1089</v>
@@ -55149,19 +55187,13 @@
       <c r="D2333" t="s">
         <v>1090</v>
       </c>
-      <c r="E2333" t="s">
-        <v>619</v>
-      </c>
-      <c r="F2333" t="s">
-        <v>864</v>
-      </c>
       <c r="H2333">
-        <v>21603</v>
+        <v>11581</v>
       </c>
     </row>
     <row r="2334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2334" t="s">
-        <v>620</v>
+        <v>864</v>
       </c>
       <c r="B2334" t="s">
         <v>24</v>
@@ -55176,15 +55208,15 @@
         <v>619</v>
       </c>
       <c r="H2334">
-        <v>18323</v>
+        <v>13142</v>
       </c>
     </row>
     <row r="2335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2335" t="s">
-        <v>1081</v>
+        <v>795</v>
       </c>
       <c r="B2335" t="s">
-        <v>322</v>
+        <v>9</v>
       </c>
       <c r="C2335" t="s">
         <v>1089</v>
@@ -55196,18 +55228,18 @@
         <v>619</v>
       </c>
       <c r="F2335" t="s">
-        <v>620</v>
+        <v>864</v>
       </c>
       <c r="H2335">
-        <v>24601</v>
+        <v>21603</v>
       </c>
     </row>
     <row r="2336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2336" t="s">
-        <v>1082</v>
+        <v>620</v>
       </c>
       <c r="B2336" t="s">
-        <v>322</v>
+        <v>24</v>
       </c>
       <c r="C2336" t="s">
         <v>1089</v>
@@ -55218,19 +55250,16 @@
       <c r="E2336" t="s">
         <v>619</v>
       </c>
-      <c r="F2336" t="s">
-        <v>620</v>
-      </c>
       <c r="H2336">
-        <v>24602</v>
+        <v>18323</v>
       </c>
     </row>
     <row r="2337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2337" t="s">
-        <v>621</v>
+        <v>1081</v>
       </c>
       <c r="B2337" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="C2337" t="s">
         <v>1089</v>
@@ -55245,15 +55274,15 @@
         <v>620</v>
       </c>
       <c r="H2337">
-        <v>21604</v>
+        <v>24601</v>
       </c>
     </row>
     <row r="2338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2338" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B2338" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="C2338" t="s">
         <v>1089</v>
@@ -55268,15 +55297,15 @@
         <v>620</v>
       </c>
       <c r="H2338">
-        <v>24603</v>
+        <v>24602</v>
       </c>
     </row>
     <row r="2339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2339" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B2339" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C2339" t="s">
         <v>1089</v>
@@ -55287,13 +55316,16 @@
       <c r="E2339" t="s">
         <v>619</v>
       </c>
+      <c r="F2339" t="s">
+        <v>620</v>
+      </c>
       <c r="H2339">
-        <v>17239</v>
+        <v>21604</v>
       </c>
     </row>
     <row r="2340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2340" t="s">
-        <v>623</v>
+        <v>1083</v>
       </c>
       <c r="B2340" t="s">
         <v>9</v>
@@ -55308,18 +55340,18 @@
         <v>619</v>
       </c>
       <c r="F2340" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H2340">
-        <v>170</v>
+        <v>24603</v>
       </c>
     </row>
     <row r="2341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2341" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B2341" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C2341" t="s">
         <v>1089</v>
@@ -55330,16 +55362,13 @@
       <c r="E2341" t="s">
         <v>619</v>
       </c>
-      <c r="F2341" t="s">
-        <v>622</v>
-      </c>
       <c r="H2341">
-        <v>166</v>
+        <v>17239</v>
       </c>
     </row>
     <row r="2342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2342" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B2342" t="s">
         <v>9</v>
@@ -55357,15 +55386,15 @@
         <v>622</v>
       </c>
       <c r="H2342">
-        <v>3451</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2343" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B2343" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C2343" t="s">
         <v>1089</v>
@@ -55376,13 +55405,16 @@
       <c r="E2343" t="s">
         <v>619</v>
       </c>
+      <c r="F2343" t="s">
+        <v>622</v>
+      </c>
       <c r="H2343">
-        <v>17240</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2344" t="s">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="B2344" t="s">
         <v>9</v>
@@ -55397,18 +55429,18 @@
         <v>619</v>
       </c>
       <c r="F2344" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H2344">
-        <v>171</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="2345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2345" t="s">
-        <v>401</v>
+        <v>626</v>
       </c>
       <c r="B2345" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C2345" t="s">
         <v>1089</v>
@@ -55419,16 +55451,13 @@
       <c r="E2345" t="s">
         <v>619</v>
       </c>
-      <c r="F2345" t="s">
-        <v>626</v>
-      </c>
       <c r="H2345">
-        <v>167</v>
+        <v>17240</v>
       </c>
     </row>
     <row r="2346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2346" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B2346" t="s">
         <v>9</v>
@@ -55446,15 +55475,15 @@
         <v>626</v>
       </c>
       <c r="H2346">
-        <v>3452</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2347" t="s">
-        <v>273</v>
+        <v>401</v>
       </c>
       <c r="B2347" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2347" t="s">
         <v>1089</v>
@@ -55465,16 +55494,19 @@
       <c r="E2347" t="s">
         <v>619</v>
       </c>
+      <c r="F2347" t="s">
+        <v>626</v>
+      </c>
       <c r="H2347">
-        <v>13244</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2348" t="s">
-        <v>627</v>
+        <v>402</v>
       </c>
       <c r="B2348" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C2348" t="s">
         <v>1089</v>
@@ -55485,16 +55517,19 @@
       <c r="E2348" t="s">
         <v>619</v>
       </c>
+      <c r="F2348" t="s">
+        <v>626</v>
+      </c>
       <c r="H2348">
-        <v>11920</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="2349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2349" t="s">
-        <v>628</v>
+        <v>273</v>
       </c>
       <c r="B2349" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2349" t="s">
         <v>1089</v>
@@ -55505,19 +55540,16 @@
       <c r="E2349" t="s">
         <v>619</v>
       </c>
-      <c r="F2349" t="s">
-        <v>627</v>
-      </c>
       <c r="H2349">
-        <v>12784</v>
+        <v>13244</v>
       </c>
     </row>
     <row r="2350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2350" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B2350" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C2350" t="s">
         <v>1089</v>
@@ -55528,16 +55560,13 @@
       <c r="E2350" t="s">
         <v>619</v>
       </c>
-      <c r="F2350" t="s">
-        <v>627</v>
-      </c>
       <c r="H2350">
-        <v>12788</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="2351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2351" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B2351" t="s">
         <v>9</v>
@@ -55555,12 +55584,12 @@
         <v>627</v>
       </c>
       <c r="H2351">
-        <v>12785</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="2352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2352" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B2352" t="s">
         <v>9</v>
@@ -55578,12 +55607,12 @@
         <v>627</v>
       </c>
       <c r="H2352">
-        <v>12786</v>
+        <v>12788</v>
       </c>
     </row>
     <row r="2353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2353" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B2353" t="s">
         <v>9</v>
@@ -55601,12 +55630,12 @@
         <v>627</v>
       </c>
       <c r="H2353">
-        <v>12789</v>
+        <v>12785</v>
       </c>
     </row>
     <row r="2354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2354" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B2354" t="s">
         <v>9</v>
@@ -55624,12 +55653,12 @@
         <v>627</v>
       </c>
       <c r="H2354">
-        <v>12787</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="2355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2355" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B2355" t="s">
         <v>9</v>
@@ -55647,12 +55676,12 @@
         <v>627</v>
       </c>
       <c r="H2355">
-        <v>12790</v>
+        <v>12789</v>
       </c>
     </row>
     <row r="2356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2356" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B2356" t="s">
         <v>9</v>
@@ -55670,15 +55699,15 @@
         <v>627</v>
       </c>
       <c r="H2356">
-        <v>12791</v>
+        <v>12787</v>
       </c>
     </row>
     <row r="2357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2357" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B2357" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2357" t="s">
         <v>1089</v>
@@ -55693,15 +55722,15 @@
         <v>627</v>
       </c>
       <c r="H2357">
-        <v>12783</v>
+        <v>12790</v>
       </c>
     </row>
     <row r="2358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2358" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B2358" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2358" t="s">
         <v>1089</v>
@@ -55716,12 +55745,12 @@
         <v>627</v>
       </c>
       <c r="H2358">
-        <v>14469</v>
+        <v>12791</v>
       </c>
     </row>
     <row r="2359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2359" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B2359" t="s">
         <v>26</v>
@@ -55739,15 +55768,15 @@
         <v>627</v>
       </c>
       <c r="H2359">
-        <v>12782</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="2360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2360" t="s">
-        <v>1085</v>
+        <v>637</v>
       </c>
       <c r="B2360" t="s">
-        <v>322</v>
+        <v>26</v>
       </c>
       <c r="C2360" t="s">
         <v>1089</v>
@@ -55762,15 +55791,15 @@
         <v>627</v>
       </c>
       <c r="H2360">
-        <v>24267</v>
+        <v>14469</v>
       </c>
     </row>
     <row r="2361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2361" t="s">
-        <v>1086</v>
+        <v>638</v>
       </c>
       <c r="B2361" t="s">
-        <v>322</v>
+        <v>26</v>
       </c>
       <c r="C2361" t="s">
         <v>1089</v>
@@ -55785,15 +55814,15 @@
         <v>627</v>
       </c>
       <c r="H2361">
-        <v>300</v>
+        <v>12782</v>
       </c>
     </row>
     <row r="2362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2362" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B2362" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="C2362" t="s">
         <v>1089</v>
@@ -55808,15 +55837,15 @@
         <v>627</v>
       </c>
       <c r="H2362">
-        <v>217</v>
+        <v>24267</v>
       </c>
     </row>
     <row r="2363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2363" t="s">
-        <v>639</v>
+        <v>1086</v>
       </c>
       <c r="B2363" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="C2363" t="s">
         <v>1089</v>
@@ -55827,13 +55856,16 @@
       <c r="E2363" t="s">
         <v>619</v>
       </c>
+      <c r="F2363" t="s">
+        <v>627</v>
+      </c>
       <c r="H2363">
-        <v>14409</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2364" t="s">
-        <v>640</v>
+        <v>1087</v>
       </c>
       <c r="B2364" t="s">
         <v>9</v>
@@ -55848,18 +55880,18 @@
         <v>619</v>
       </c>
       <c r="F2364" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="H2364">
-        <v>164</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2365" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B2365" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C2365" t="s">
         <v>1089</v>
@@ -55870,16 +55902,13 @@
       <c r="E2365" t="s">
         <v>619</v>
       </c>
-      <c r="F2365" t="s">
-        <v>639</v>
-      </c>
       <c r="H2365">
-        <v>338</v>
+        <v>14409</v>
       </c>
     </row>
     <row r="2366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2366" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B2366" t="s">
         <v>9</v>
@@ -55897,15 +55926,15 @@
         <v>639</v>
       </c>
       <c r="H2366">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2367" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B2367" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C2367" t="s">
         <v>1089</v>
@@ -55916,13 +55945,16 @@
       <c r="E2367" t="s">
         <v>619</v>
       </c>
+      <c r="F2367" t="s">
+        <v>639</v>
+      </c>
       <c r="H2367">
-        <v>16073</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2368" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="B2368" t="s">
         <v>9</v>
@@ -55937,18 +55969,18 @@
         <v>619</v>
       </c>
       <c r="F2368" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H2368">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2369" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="B2369" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C2369" t="s">
         <v>1089</v>
@@ -55959,16 +55991,13 @@
       <c r="E2369" t="s">
         <v>619</v>
       </c>
-      <c r="F2369" t="s">
-        <v>645</v>
-      </c>
       <c r="H2369">
-        <v>170</v>
+        <v>16073</v>
       </c>
     </row>
     <row r="2370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2370" t="s">
-        <v>401</v>
+        <v>624</v>
       </c>
       <c r="B2370" t="s">
         <v>9</v>
@@ -55986,12 +56015,12 @@
         <v>645</v>
       </c>
       <c r="H2370">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2371" t="s">
-        <v>400</v>
+        <v>623</v>
       </c>
       <c r="B2371" t="s">
         <v>9</v>
@@ -56009,12 +56038,12 @@
         <v>645</v>
       </c>
       <c r="H2371">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2372" t="s">
-        <v>625</v>
+        <v>401</v>
       </c>
       <c r="B2372" t="s">
         <v>9</v>
@@ -56032,12 +56061,12 @@
         <v>645</v>
       </c>
       <c r="H2372">
-        <v>3451</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2373" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B2373" t="s">
         <v>9</v>
@@ -56055,12 +56084,12 @@
         <v>645</v>
       </c>
       <c r="H2373">
-        <v>3452</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2374" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="B2374" t="s">
         <v>9</v>
@@ -56078,12 +56107,12 @@
         <v>645</v>
       </c>
       <c r="H2374">
-        <v>164</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="2375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2375" t="s">
-        <v>642</v>
+        <v>402</v>
       </c>
       <c r="B2375" t="s">
         <v>9</v>
@@ -56101,12 +56130,12 @@
         <v>645</v>
       </c>
       <c r="H2375">
-        <v>165</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="2376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2376" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B2376" t="s">
         <v>9</v>
@@ -56124,15 +56153,15 @@
         <v>645</v>
       </c>
       <c r="H2376">
-        <v>338</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2377" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="B2377" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C2377" t="s">
         <v>1089</v>
@@ -56147,12 +56176,12 @@
         <v>645</v>
       </c>
       <c r="H2377">
-        <v>11920</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2378" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="B2378" t="s">
         <v>9</v>
@@ -56169,19 +56198,16 @@
       <c r="F2378" t="s">
         <v>645</v>
       </c>
-      <c r="G2378" t="s">
-        <v>627</v>
-      </c>
       <c r="H2378">
-        <v>12784</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2379" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B2379" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C2379" t="s">
         <v>1089</v>
@@ -56195,16 +56221,13 @@
       <c r="F2379" t="s">
         <v>645</v>
       </c>
-      <c r="G2379" t="s">
-        <v>627</v>
-      </c>
       <c r="H2379">
-        <v>12788</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="2380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2380" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B2380" t="s">
         <v>9</v>
@@ -56225,12 +56248,12 @@
         <v>627</v>
       </c>
       <c r="H2380">
-        <v>12785</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="2381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2381" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B2381" t="s">
         <v>9</v>
@@ -56251,12 +56274,12 @@
         <v>627</v>
       </c>
       <c r="H2381">
-        <v>12786</v>
+        <v>12788</v>
       </c>
     </row>
     <row r="2382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2382" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B2382" t="s">
         <v>9</v>
@@ -56277,12 +56300,12 @@
         <v>627</v>
       </c>
       <c r="H2382">
-        <v>12789</v>
+        <v>12785</v>
       </c>
     </row>
     <row r="2383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2383" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B2383" t="s">
         <v>9</v>
@@ -56303,12 +56326,12 @@
         <v>627</v>
       </c>
       <c r="H2383">
-        <v>12787</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="2384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2384" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B2384" t="s">
         <v>9</v>
@@ -56329,12 +56352,12 @@
         <v>627</v>
       </c>
       <c r="H2384">
-        <v>12790</v>
+        <v>12789</v>
       </c>
     </row>
     <row r="2385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2385" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B2385" t="s">
         <v>9</v>
@@ -56355,15 +56378,15 @@
         <v>627</v>
       </c>
       <c r="H2385">
-        <v>12791</v>
+        <v>12787</v>
       </c>
     </row>
     <row r="2386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2386" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B2386" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2386" t="s">
         <v>1089</v>
@@ -56381,15 +56404,15 @@
         <v>627</v>
       </c>
       <c r="H2386">
-        <v>12783</v>
+        <v>12790</v>
       </c>
     </row>
     <row r="2387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2387" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B2387" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2387" t="s">
         <v>1089</v>
@@ -56407,12 +56430,12 @@
         <v>627</v>
       </c>
       <c r="H2387">
-        <v>14469</v>
+        <v>12791</v>
       </c>
     </row>
     <row r="2388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2388" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B2388" t="s">
         <v>26</v>
@@ -56433,15 +56456,15 @@
         <v>627</v>
       </c>
       <c r="H2388">
-        <v>12782</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="2389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2389" t="s">
-        <v>1085</v>
+        <v>637</v>
       </c>
       <c r="B2389" t="s">
-        <v>322</v>
+        <v>26</v>
       </c>
       <c r="C2389" t="s">
         <v>1089</v>
@@ -56459,15 +56482,15 @@
         <v>627</v>
       </c>
       <c r="H2389">
-        <v>24267</v>
+        <v>14469</v>
       </c>
     </row>
     <row r="2390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2390" t="s">
-        <v>1086</v>
+        <v>638</v>
       </c>
       <c r="B2390" t="s">
-        <v>322</v>
+        <v>26</v>
       </c>
       <c r="C2390" t="s">
         <v>1089</v>
@@ -56485,15 +56508,15 @@
         <v>627</v>
       </c>
       <c r="H2390">
-        <v>300</v>
+        <v>12782</v>
       </c>
     </row>
     <row r="2391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2391" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B2391" t="s">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="C2391" t="s">
         <v>1089</v>
@@ -56511,15 +56534,15 @@
         <v>627</v>
       </c>
       <c r="H2391">
-        <v>217</v>
+        <v>24267</v>
       </c>
     </row>
     <row r="2392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2392" t="s">
-        <v>273</v>
+        <v>1086</v>
       </c>
       <c r="B2392" t="s">
-        <v>26</v>
+        <v>322</v>
       </c>
       <c r="C2392" t="s">
         <v>1089</v>
@@ -56533,16 +56556,19 @@
       <c r="F2392" t="s">
         <v>645</v>
       </c>
+      <c r="G2392" t="s">
+        <v>627</v>
+      </c>
       <c r="H2392">
-        <v>13244</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2393" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="B2393" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2393" t="s">
         <v>1089</v>
@@ -56550,13 +56576,22 @@
       <c r="D2393" t="s">
         <v>1090</v>
       </c>
+      <c r="E2393" t="s">
+        <v>619</v>
+      </c>
+      <c r="F2393" t="s">
+        <v>645</v>
+      </c>
+      <c r="G2393" t="s">
+        <v>627</v>
+      </c>
       <c r="H2393">
-        <v>27844</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2394" t="s">
-        <v>1099</v>
+        <v>273</v>
       </c>
       <c r="B2394" t="s">
         <v>26</v>
@@ -56568,18 +56603,21 @@
         <v>1090</v>
       </c>
       <c r="E2394" t="s">
-        <v>1098</v>
+        <v>619</v>
+      </c>
+      <c r="F2394" t="s">
+        <v>645</v>
       </c>
       <c r="H2394">
-        <v>27938</v>
+        <v>13244</v>
       </c>
     </row>
     <row r="2395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2395" t="s">
-        <v>647</v>
+        <v>1100</v>
       </c>
       <c r="B2395" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="C2395" t="s">
         <v>1089</v>
@@ -56587,19 +56625,16 @@
       <c r="D2395" t="s">
         <v>1090</v>
       </c>
-      <c r="E2395" t="s">
-        <v>1098</v>
-      </c>
       <c r="H2395">
-        <v>13915</v>
+        <v>27844</v>
       </c>
     </row>
     <row r="2396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2396" t="s">
-        <v>648</v>
+        <v>1101</v>
       </c>
       <c r="B2396" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="C2396" t="s">
         <v>1089</v>
@@ -56608,18 +56643,18 @@
         <v>1090</v>
       </c>
       <c r="E2396" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="H2396">
-        <v>13916</v>
+        <v>27938</v>
       </c>
     </row>
     <row r="2397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2397" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B2397" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C2397" t="s">
         <v>1089</v>
@@ -56628,35 +56663,50 @@
         <v>1090</v>
       </c>
       <c r="E2397" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="H2397">
-        <v>21605</v>
+        <v>13915</v>
       </c>
     </row>
     <row r="2398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2398" t="s">
+        <v>648</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E2398" t="s">
         <v>1100</v>
       </c>
-      <c r="B2398" t="s">
-        <v>515</v>
-      </c>
       <c r="H2398">
-        <v>34010</v>
+        <v>13916</v>
       </c>
     </row>
     <row r="2399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2399" t="s">
-        <v>1101</v>
+        <v>649</v>
       </c>
       <c r="B2399" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="C2399" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E2399" t="s">
         <v>1100</v>
       </c>
       <c r="H2399">
-        <v>34011</v>
+        <v>21605</v>
       </c>
     </row>
     <row r="2400" spans="1:8" x14ac:dyDescent="0.25">
@@ -56664,16 +56714,10 @@
         <v>1102</v>
       </c>
       <c r="B2400" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2400" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D2400" t="s">
-        <v>1101</v>
+        <v>515</v>
       </c>
       <c r="H2400">
-        <v>34013</v>
+        <v>34010</v>
       </c>
     </row>
     <row r="2401" spans="1:8" x14ac:dyDescent="0.25">
@@ -56681,19 +56725,13 @@
         <v>1103</v>
       </c>
       <c r="B2401" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C2401" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D2401" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E2401" t="s">
         <v>1102</v>
       </c>
       <c r="H2401">
-        <v>19666</v>
+        <v>34011</v>
       </c>
     </row>
     <row r="2402" spans="1:8" x14ac:dyDescent="0.25">
@@ -56704,185 +56742,179 @@
         <v>31</v>
       </c>
       <c r="C2402" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2402" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="H2402">
-        <v>34390</v>
+        <v>34013</v>
       </c>
     </row>
     <row r="2403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2403" t="s">
-        <v>207</v>
+        <v>1105</v>
       </c>
       <c r="B2403" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2403" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2403" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2403" t="s">
         <v>1104</v>
       </c>
       <c r="H2403">
-        <v>11949</v>
+        <v>19666</v>
       </c>
     </row>
     <row r="2404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2404" t="s">
-        <v>208</v>
+        <v>1106</v>
       </c>
       <c r="B2404" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2404" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2404" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E2404" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F2404" t="s">
-        <v>207</v>
+        <v>1103</v>
       </c>
       <c r="H2404">
-        <v>1005</v>
+        <v>34390</v>
       </c>
     </row>
     <row r="2405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2405" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B2405" t="s">
         <v>24</v>
       </c>
       <c r="C2405" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2405" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2405" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H2405">
-        <v>13926</v>
+        <v>11949</v>
       </c>
     </row>
     <row r="2406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2406" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2406" t="s">
         <v>9</v>
       </c>
       <c r="C2406" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2406" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2406" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F2406" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H2406">
-        <v>13931</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2407" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="B2407" t="s">
         <v>24</v>
       </c>
       <c r="C2407" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2407" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2407" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H2407">
-        <v>13162</v>
+        <v>13926</v>
       </c>
     </row>
     <row r="2408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2408" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="B2408" t="s">
         <v>9</v>
       </c>
       <c r="C2408" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2408" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2408" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F2408" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="H2408">
-        <v>13163</v>
+        <v>13931</v>
       </c>
     </row>
     <row r="2409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2409" t="s">
-        <v>1105</v>
+        <v>242</v>
       </c>
       <c r="B2409" t="s">
         <v>24</v>
       </c>
       <c r="C2409" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2409" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2409" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H2409">
-        <v>13927</v>
+        <v>13162</v>
       </c>
     </row>
     <row r="2410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2410" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E2410" t="s">
         <v>1106</v>
       </c>
-      <c r="B2410" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2410" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D2410" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E2410" t="s">
-        <v>1104</v>
-      </c>
       <c r="F2410" t="s">
-        <v>1105</v>
+        <v>242</v>
       </c>
       <c r="H2410">
-        <v>2857</v>
+        <v>13163</v>
       </c>
     </row>
     <row r="2411" spans="1:8" x14ac:dyDescent="0.25">
@@ -56890,757 +56922,763 @@
         <v>1107</v>
       </c>
       <c r="B2411" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2411" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2411" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2411" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F2411" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H2411">
-        <v>2858</v>
+        <v>13927</v>
       </c>
     </row>
     <row r="2412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2412" t="s">
-        <v>252</v>
+        <v>1108</v>
       </c>
       <c r="B2412" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C2412" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2412" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2412" t="s">
-        <v>1104</v>
+        <v>1106</v>
+      </c>
+      <c r="F2412" t="s">
+        <v>1107</v>
       </c>
       <c r="H2412">
-        <v>15927</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="2413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2413" t="s">
-        <v>253</v>
+        <v>1109</v>
       </c>
       <c r="B2413" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2413" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2413" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2413" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F2413" t="s">
-        <v>252</v>
+        <v>1107</v>
       </c>
       <c r="H2413">
-        <v>11738</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="2414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2414" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2414" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C2414" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2414" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2414" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F2414" t="s">
-        <v>252</v>
-      </c>
-      <c r="G2414" t="s">
-        <v>253</v>
+        <v>1106</v>
       </c>
       <c r="H2414">
-        <v>14785</v>
+        <v>15927</v>
       </c>
     </row>
     <row r="2415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2415" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2415" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2415" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2415" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2415" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F2415" t="s">
         <v>252</v>
       </c>
-      <c r="G2415" t="s">
-        <v>253</v>
-      </c>
       <c r="H2415">
-        <v>13090</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="2416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2416" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B2416" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2416" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2416" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2416" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F2416" t="s">
         <v>252</v>
       </c>
+      <c r="G2416" t="s">
+        <v>253</v>
+      </c>
       <c r="H2416">
-        <v>12245</v>
+        <v>14785</v>
       </c>
     </row>
     <row r="2417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2417" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B2417" t="s">
         <v>9</v>
       </c>
       <c r="C2417" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2417" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2417" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F2417" t="s">
         <v>252</v>
       </c>
       <c r="G2417" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H2417">
-        <v>12680</v>
+        <v>13090</v>
       </c>
     </row>
     <row r="2418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2418" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B2418" t="s">
         <v>24</v>
       </c>
       <c r="C2418" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2418" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2418" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F2418" t="s">
         <v>252</v>
       </c>
       <c r="H2418">
-        <v>12863</v>
+        <v>12245</v>
       </c>
     </row>
     <row r="2419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2419" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B2419" t="s">
         <v>9</v>
       </c>
       <c r="C2419" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2419" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2419" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F2419" t="s">
         <v>252</v>
       </c>
       <c r="G2419" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H2419">
-        <v>12681</v>
+        <v>12680</v>
       </c>
     </row>
     <row r="2420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2420" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B2420" t="s">
         <v>24</v>
       </c>
       <c r="C2420" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2420" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2420" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F2420" t="s">
         <v>252</v>
       </c>
       <c r="H2420">
-        <v>16703</v>
+        <v>12863</v>
       </c>
     </row>
     <row r="2421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2421" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2421" t="s">
         <v>9</v>
       </c>
       <c r="C2421" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2421" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2421" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F2421" t="s">
         <v>252</v>
       </c>
       <c r="G2421" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H2421">
-        <v>16712</v>
+        <v>12681</v>
       </c>
     </row>
     <row r="2422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2422" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B2422" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2422" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2422" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2422" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="F2422" t="s">
         <v>252</v>
       </c>
       <c r="H2422">
-        <v>15361</v>
+        <v>16703</v>
       </c>
     </row>
     <row r="2423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2423" t="s">
-        <v>1108</v>
+        <v>261</v>
       </c>
       <c r="B2423" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="C2423" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2423" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2423" t="s">
-        <v>1104</v>
+        <v>1106</v>
+      </c>
+      <c r="F2423" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2423" t="s">
+        <v>260</v>
       </c>
       <c r="H2423">
-        <v>34391</v>
+        <v>16712</v>
       </c>
     </row>
     <row r="2424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2424" t="s">
-        <v>1109</v>
+        <v>262</v>
       </c>
       <c r="B2424" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2424" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2424" t="s">
-        <v>1101</v>
+        <v>1103</v>
+      </c>
+      <c r="E2424" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F2424" t="s">
+        <v>252</v>
       </c>
       <c r="H2424">
-        <v>34392</v>
+        <v>15361</v>
       </c>
     </row>
     <row r="2425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2425" t="s">
-        <v>249</v>
+        <v>1110</v>
       </c>
       <c r="B2425" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="C2425" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2425" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2425" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="H2425">
-        <v>11737</v>
+        <v>34391</v>
       </c>
     </row>
     <row r="2426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2426" t="s">
-        <v>250</v>
+        <v>1111</v>
       </c>
       <c r="B2426" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2426" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2426" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E2426" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F2426" t="s">
-        <v>249</v>
+        <v>1103</v>
       </c>
       <c r="H2426">
-        <v>13086</v>
+        <v>34392</v>
       </c>
     </row>
     <row r="2427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2427" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="B2427" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2427" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2427" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2427" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F2427" t="s">
-        <v>249</v>
+        <v>1111</v>
       </c>
       <c r="H2427">
-        <v>11739</v>
+        <v>11737</v>
       </c>
     </row>
     <row r="2428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2428" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2428" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2428" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2428" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2428" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F2428" t="s">
         <v>249</v>
       </c>
       <c r="H2428">
-        <v>13367</v>
+        <v>13086</v>
       </c>
     </row>
     <row r="2429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2429" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B2429" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2429" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2429" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2429" t="s">
-        <v>1109</v>
+        <v>1111</v>
+      </c>
+      <c r="F2429" t="s">
+        <v>249</v>
       </c>
       <c r="H2429">
-        <v>11749</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="2430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2430" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="B2430" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2430" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2430" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2430" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F2430" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="H2430">
-        <v>13346</v>
+        <v>13367</v>
       </c>
     </row>
     <row r="2431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2431" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2431" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2431" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2431" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2431" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F2431" t="s">
-        <v>213</v>
+        <v>1111</v>
       </c>
       <c r="H2431">
-        <v>12243</v>
+        <v>11749</v>
       </c>
     </row>
     <row r="2432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2432" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B2432" t="s">
         <v>24</v>
       </c>
       <c r="C2432" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2432" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2432" t="s">
-        <v>1109</v>
+        <v>1111</v>
+      </c>
+      <c r="F2432" t="s">
+        <v>213</v>
       </c>
       <c r="H2432">
-        <v>11750</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="2433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2433" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2433" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2433" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2433" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2433" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F2433" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H2433">
-        <v>13346</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="2434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2434" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2434" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2434" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2434" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2434" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F2434" t="s">
-        <v>216</v>
+        <v>1111</v>
       </c>
       <c r="H2434">
-        <v>12244</v>
+        <v>11750</v>
       </c>
     </row>
     <row r="2435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2435" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B2435" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2435" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2435" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2435" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F2435" t="s">
         <v>216</v>
       </c>
       <c r="H2435">
-        <v>11229</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="2436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2436" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="B2436" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C2436" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2436" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2436" t="s">
-        <v>1109</v>
+        <v>1111</v>
+      </c>
+      <c r="F2436" t="s">
+        <v>216</v>
       </c>
       <c r="H2436">
-        <v>34308</v>
+        <v>12244</v>
       </c>
     </row>
     <row r="2437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2437" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="B2437" t="s">
         <v>9</v>
       </c>
       <c r="C2437" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2437" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2437" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F2437" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="H2437">
-        <v>34309</v>
+        <v>11229</v>
       </c>
     </row>
     <row r="2438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2438" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B2438" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C2438" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2438" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2438" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F2438" t="s">
-        <v>277</v>
+        <v>1111</v>
       </c>
       <c r="H2438">
-        <v>34311</v>
+        <v>34308</v>
       </c>
     </row>
     <row r="2439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2439" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B2439" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2439" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2439" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2439" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F2439" t="s">
         <v>277</v>
       </c>
       <c r="H2439">
-        <v>34310</v>
+        <v>34309</v>
       </c>
     </row>
     <row r="2440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2440" t="s">
-        <v>618</v>
+        <v>279</v>
       </c>
       <c r="B2440" t="s">
         <v>26</v>
       </c>
       <c r="C2440" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2440" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2440" t="s">
-        <v>1109</v>
+        <v>1111</v>
+      </c>
+      <c r="F2440" t="s">
+        <v>277</v>
       </c>
       <c r="H2440">
-        <v>33177</v>
+        <v>34311</v>
       </c>
     </row>
     <row r="2441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2441" t="s">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="B2441" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2441" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2441" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2441" t="s">
-        <v>1109</v>
+        <v>1111</v>
+      </c>
+      <c r="F2441" t="s">
+        <v>277</v>
       </c>
       <c r="H2441">
-        <v>27301</v>
+        <v>34310</v>
       </c>
     </row>
     <row r="2442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2442" t="s">
-        <v>126</v>
+        <v>618</v>
       </c>
       <c r="B2442" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2442" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2442" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2442" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F2442" t="s">
-        <v>124</v>
+        <v>1111</v>
       </c>
       <c r="H2442">
-        <v>1576</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="2443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2443" t="s">
-        <v>1110</v>
+        <v>124</v>
       </c>
       <c r="B2443" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="C2443" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2443" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2443" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="H2443">
-        <v>34393</v>
+        <v>27301</v>
       </c>
     </row>
     <row r="2444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2444" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E2444" t="s">
         <v>1111</v>
       </c>
-      <c r="B2444" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2444" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D2444" t="s">
-        <v>1101</v>
+      <c r="F2444" t="s">
+        <v>124</v>
       </c>
       <c r="H2444">
-        <v>27913</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="2445" spans="1:8" x14ac:dyDescent="0.25">
@@ -57648,19 +57686,19 @@
         <v>1112</v>
       </c>
       <c r="B2445" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="C2445" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2445" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2445" t="s">
         <v>1111</v>
       </c>
       <c r="H2445">
-        <v>27914</v>
+        <v>34393</v>
       </c>
     </row>
     <row r="2446" spans="1:8" x14ac:dyDescent="0.25">
@@ -57671,13 +57709,13 @@
         <v>31</v>
       </c>
       <c r="C2446" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2446" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="H2446">
-        <v>34017</v>
+        <v>27913</v>
       </c>
     </row>
     <row r="2447" spans="1:8" x14ac:dyDescent="0.25">
@@ -57685,30 +57723,36 @@
         <v>1114</v>
       </c>
       <c r="B2447" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2447" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2447" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2447" t="s">
         <v>1113</v>
       </c>
       <c r="H2447">
-        <v>34089</v>
+        <v>27914</v>
       </c>
     </row>
     <row r="2448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2448" t="s">
+        <v>1115</v>
+      </c>
       <c r="B2448" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2448" t="s">
-        <v>1115</v>
+        <v>1102</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>1103</v>
       </c>
       <c r="H2448">
-        <v>33991</v>
+        <v>34017</v>
       </c>
     </row>
     <row r="2449" spans="1:8" x14ac:dyDescent="0.25">
@@ -57716,30 +57760,30 @@
         <v>1116</v>
       </c>
       <c r="B2449" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C2449" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E2449" t="s">
         <v>1115</v>
       </c>
       <c r="H2449">
-        <v>18148</v>
+        <v>34089</v>
       </c>
     </row>
     <row r="2450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2450" t="s">
+      <c r="B2450" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2450" t="s">
         <v>1117</v>
       </c>
-      <c r="B2450" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2450" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D2450" t="s">
-        <v>1116</v>
-      </c>
       <c r="H2450">
-        <v>25295</v>
+        <v>33991</v>
       </c>
     </row>
     <row r="2451" spans="1:8" x14ac:dyDescent="0.25">
@@ -57747,64 +57791,61 @@
         <v>1118</v>
       </c>
       <c r="B2451" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2451" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D2451" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="H2451">
-        <v>34474</v>
+        <v>18148</v>
       </c>
     </row>
     <row r="2452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2452" t="s">
+        <v>1119</v>
+      </c>
       <c r="B2452" t="s">
         <v>31</v>
       </c>
       <c r="C2452" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2452" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2452">
-        <v>33917</v>
+        <v>25295</v>
       </c>
     </row>
     <row r="2453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2453" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B2453" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2453" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2453" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2453">
-        <v>33912</v>
+        <v>34474</v>
       </c>
     </row>
     <row r="2454" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2454" t="s">
-        <v>1120</v>
-      </c>
       <c r="B2454" t="s">
         <v>31</v>
       </c>
       <c r="C2454" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2454" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2454">
-        <v>20423</v>
+        <v>33917</v>
       </c>
     </row>
     <row r="2455" spans="1:8" x14ac:dyDescent="0.25">
@@ -57812,16 +57853,16 @@
         <v>1121</v>
       </c>
       <c r="B2455" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2455" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2455" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2455">
-        <v>20424</v>
+        <v>33912</v>
       </c>
     </row>
     <row r="2456" spans="1:8" x14ac:dyDescent="0.25">
@@ -57832,13 +57873,13 @@
         <v>31</v>
       </c>
       <c r="C2456" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2456" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2456">
-        <v>20425</v>
+        <v>20423</v>
       </c>
     </row>
     <row r="2457" spans="1:8" x14ac:dyDescent="0.25">
@@ -57849,13 +57890,13 @@
         <v>31</v>
       </c>
       <c r="C2457" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2457" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2457">
-        <v>20426</v>
+        <v>20424</v>
       </c>
     </row>
     <row r="2458" spans="1:8" x14ac:dyDescent="0.25">
@@ -57866,13 +57907,13 @@
         <v>31</v>
       </c>
       <c r="C2458" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2458" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2458">
-        <v>20440</v>
+        <v>20425</v>
       </c>
     </row>
     <row r="2459" spans="1:8" x14ac:dyDescent="0.25">
@@ -57883,13 +57924,13 @@
         <v>31</v>
       </c>
       <c r="C2459" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2459" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2459">
-        <v>20441</v>
+        <v>20426</v>
       </c>
     </row>
     <row r="2460" spans="1:8" x14ac:dyDescent="0.25">
@@ -57900,13 +57941,13 @@
         <v>31</v>
       </c>
       <c r="C2460" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2460" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2460">
-        <v>32646</v>
+        <v>20440</v>
       </c>
     </row>
     <row r="2461" spans="1:8" x14ac:dyDescent="0.25">
@@ -57917,13 +57958,13 @@
         <v>31</v>
       </c>
       <c r="C2461" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2461" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2461">
-        <v>20442</v>
+        <v>20441</v>
       </c>
     </row>
     <row r="2462" spans="1:8" x14ac:dyDescent="0.25">
@@ -57934,13 +57975,13 @@
         <v>31</v>
       </c>
       <c r="C2462" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2462" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2462">
-        <v>20443</v>
+        <v>32646</v>
       </c>
     </row>
     <row r="2463" spans="1:8" x14ac:dyDescent="0.25">
@@ -57951,13 +57992,13 @@
         <v>31</v>
       </c>
       <c r="C2463" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2463" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2463">
-        <v>20444</v>
+        <v>20442</v>
       </c>
     </row>
     <row r="2464" spans="1:8" x14ac:dyDescent="0.25">
@@ -57968,13 +58009,13 @@
         <v>31</v>
       </c>
       <c r="C2464" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2464" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2464">
-        <v>20445</v>
+        <v>20443</v>
       </c>
     </row>
     <row r="2465" spans="1:8" x14ac:dyDescent="0.25">
@@ -57985,108 +58026,111 @@
         <v>31</v>
       </c>
       <c r="C2465" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2465" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H2465">
+        <v>20444</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2466" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2466" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H2466">
+        <v>20445</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2467" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H2467">
         <v>18792</v>
       </c>
     </row>
-    <row r="2466" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2466" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2466" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H2466">
+    <row r="2468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2468" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H2468">
         <v>33940</v>
       </c>
     </row>
-    <row r="2467" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2467" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2467" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H2467">
+    <row r="2469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2469" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H2469">
         <v>33939</v>
-      </c>
-    </row>
-    <row r="2468" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2468" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2468" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2468" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H2468">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2469" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2469" t="s">
-        <v>500</v>
-      </c>
-      <c r="B2469" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2469" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H2469">
-        <v>748</v>
       </c>
     </row>
     <row r="2470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2470" t="s">
-        <v>501</v>
+        <v>8</v>
       </c>
       <c r="B2470" t="s">
         <v>9</v>
       </c>
       <c r="C2470" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H2470">
-        <v>3167</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2471" t="s">
-        <v>1132</v>
+        <v>500</v>
       </c>
       <c r="B2471" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C2471" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H2471">
-        <v>18244</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2472" t="s">
-        <v>1133</v>
+        <v>501</v>
       </c>
       <c r="B2472" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2472" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D2472" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="H2472">
-        <v>19139</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="2473" spans="1:8" x14ac:dyDescent="0.25">
@@ -58094,16 +58138,13 @@
         <v>1134</v>
       </c>
       <c r="B2473" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2473" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D2473" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="H2473">
-        <v>19140</v>
+        <v>18244</v>
       </c>
     </row>
     <row r="2474" spans="1:8" x14ac:dyDescent="0.25">
@@ -58111,13 +58152,16 @@
         <v>1135</v>
       </c>
       <c r="B2474" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2474" t="s">
-        <v>1115</v>
+        <v>1117</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>1134</v>
       </c>
       <c r="H2474">
-        <v>106</v>
+        <v>19139</v>
       </c>
     </row>
     <row r="2475" spans="1:8" x14ac:dyDescent="0.25">
@@ -58125,10 +58169,16 @@
         <v>1136</v>
       </c>
       <c r="B2475" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="C2475" t="s">
-        <v>1115</v>
+        <v>1117</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H2475">
+        <v>19140</v>
       </c>
     </row>
     <row r="2476" spans="1:8" x14ac:dyDescent="0.25">
@@ -58136,13 +58186,13 @@
         <v>1137</v>
       </c>
       <c r="B2476" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C2476" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H2476">
-        <v>20802</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2477" spans="1:8" x14ac:dyDescent="0.25">
@@ -58150,16 +58200,10 @@
         <v>1138</v>
       </c>
       <c r="B2477" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C2477" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D2477" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H2477">
-        <v>24423</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2478" spans="1:8" x14ac:dyDescent="0.25">
@@ -58167,16 +58211,13 @@
         <v>1139</v>
       </c>
       <c r="B2478" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2478" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D2478" t="s">
-        <v>1137</v>
+        <v>1117</v>
       </c>
       <c r="H2478">
-        <v>33755</v>
+        <v>20802</v>
       </c>
     </row>
     <row r="2479" spans="1:8" x14ac:dyDescent="0.25">
@@ -58184,19 +58225,16 @@
         <v>1140</v>
       </c>
       <c r="B2479" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2479" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2479" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E2479" t="s">
         <v>1139</v>
       </c>
       <c r="H2479">
-        <v>33756</v>
+        <v>24423</v>
       </c>
     </row>
     <row r="2480" spans="1:8" x14ac:dyDescent="0.25">
@@ -58207,13 +58245,13 @@
         <v>31</v>
       </c>
       <c r="C2480" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2480" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="H2480">
-        <v>24850</v>
+        <v>33755</v>
       </c>
     </row>
     <row r="2481" spans="1:8" x14ac:dyDescent="0.25">
@@ -58221,16 +58259,19 @@
         <v>1142</v>
       </c>
       <c r="B2481" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2481" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2481" t="s">
-        <v>1137</v>
+        <v>1139</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>1141</v>
       </c>
       <c r="H2481">
-        <v>25368</v>
+        <v>33756</v>
       </c>
     </row>
     <row r="2482" spans="1:8" x14ac:dyDescent="0.25">
@@ -58241,13 +58282,13 @@
         <v>31</v>
       </c>
       <c r="C2482" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2482" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="H2482">
-        <v>24207</v>
+        <v>24850</v>
       </c>
     </row>
     <row r="2483" spans="1:8" x14ac:dyDescent="0.25">
@@ -58258,13 +58299,13 @@
         <v>31</v>
       </c>
       <c r="C2483" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2483" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="H2483">
-        <v>24952</v>
+        <v>25368</v>
       </c>
     </row>
     <row r="2484" spans="1:8" x14ac:dyDescent="0.25">
@@ -58275,64 +58316,64 @@
         <v>31</v>
       </c>
       <c r="C2484" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2484" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="H2484">
-        <v>24424</v>
+        <v>24207</v>
       </c>
     </row>
     <row r="2485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2485" t="s">
+        <v>1146</v>
+      </c>
       <c r="B2485" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2485" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2485" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E2485" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="H2485">
-        <v>24421</v>
+        <v>24952</v>
       </c>
     </row>
     <row r="2486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2486" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B2486" t="s">
         <v>31</v>
       </c>
       <c r="C2486" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2486" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="H2486">
-        <v>22547</v>
+        <v>24424</v>
       </c>
     </row>
     <row r="2487" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2487" t="s">
+      <c r="B2487" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E2487" t="s">
         <v>1147</v>
       </c>
-      <c r="B2487" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2487" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D2487" t="s">
-        <v>1137</v>
-      </c>
       <c r="H2487">
-        <v>20511</v>
+        <v>24421</v>
       </c>
     </row>
     <row r="2488" spans="1:8" x14ac:dyDescent="0.25">
@@ -58343,13 +58384,13 @@
         <v>31</v>
       </c>
       <c r="C2488" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2488" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="H2488">
-        <v>34138</v>
+        <v>22547</v>
       </c>
     </row>
     <row r="2489" spans="1:8" x14ac:dyDescent="0.25">
@@ -58357,19 +58398,16 @@
         <v>1149</v>
       </c>
       <c r="B2489" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2489" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2489" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E2489" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="H2489">
-        <v>34139</v>
+        <v>20511</v>
       </c>
     </row>
     <row r="2490" spans="1:8" x14ac:dyDescent="0.25">
@@ -58380,13 +58418,13 @@
         <v>31</v>
       </c>
       <c r="C2490" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2490" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="H2490">
-        <v>27331</v>
+        <v>34138</v>
       </c>
     </row>
     <row r="2491" spans="1:8" x14ac:dyDescent="0.25">
@@ -58397,16 +58435,16 @@
         <v>9</v>
       </c>
       <c r="C2491" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2491" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E2491" t="s">
         <v>1150</v>
       </c>
       <c r="H2491">
-        <v>27363</v>
+        <v>34139</v>
       </c>
     </row>
     <row r="2492" spans="1:8" x14ac:dyDescent="0.25">
@@ -58414,19 +58452,16 @@
         <v>1152</v>
       </c>
       <c r="B2492" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2492" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2492" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E2492" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="H2492">
-        <v>27364</v>
+        <v>27331</v>
       </c>
     </row>
     <row r="2493" spans="1:8" x14ac:dyDescent="0.25">
@@ -58437,16 +58472,16 @@
         <v>9</v>
       </c>
       <c r="C2493" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2493" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E2493" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H2493">
-        <v>27365</v>
+        <v>27363</v>
       </c>
     </row>
     <row r="2494" spans="1:8" x14ac:dyDescent="0.25">
@@ -58457,16 +58492,16 @@
         <v>9</v>
       </c>
       <c r="C2494" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2494" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E2494" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="H2494">
-        <v>27366</v>
+        <v>27364</v>
       </c>
     </row>
     <row r="2495" spans="1:8" x14ac:dyDescent="0.25">
@@ -58474,16 +58509,19 @@
         <v>1155</v>
       </c>
       <c r="B2495" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2495" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2495" t="s">
-        <v>1137</v>
+        <v>1139</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>1152</v>
       </c>
       <c r="H2495">
-        <v>18158</v>
+        <v>27365</v>
       </c>
     </row>
     <row r="2496" spans="1:8" x14ac:dyDescent="0.25">
@@ -58491,16 +58529,19 @@
         <v>1156</v>
       </c>
       <c r="B2496" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2496" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2496" t="s">
-        <v>1137</v>
+        <v>1139</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>1152</v>
       </c>
       <c r="H2496">
-        <v>26945</v>
+        <v>27366</v>
       </c>
     </row>
     <row r="2497" spans="1:8" x14ac:dyDescent="0.25">
@@ -58508,13 +58549,16 @@
         <v>1157</v>
       </c>
       <c r="B2497" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2497" t="s">
-        <v>1115</v>
+        <v>1117</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>1139</v>
       </c>
       <c r="H2497">
-        <v>27265</v>
+        <v>18158</v>
       </c>
     </row>
     <row r="2498" spans="1:8" x14ac:dyDescent="0.25">
@@ -58525,13 +58569,13 @@
         <v>31</v>
       </c>
       <c r="C2498" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2498" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="H2498">
-        <v>27266</v>
+        <v>26945</v>
       </c>
     </row>
     <row r="2499" spans="1:8" x14ac:dyDescent="0.25">
@@ -58539,16 +58583,13 @@
         <v>1159</v>
       </c>
       <c r="B2499" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2499" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D2499" t="s">
-        <v>1157</v>
+        <v>1117</v>
       </c>
       <c r="H2499">
-        <v>27267</v>
+        <v>27265</v>
       </c>
     </row>
     <row r="2500" spans="1:8" x14ac:dyDescent="0.25">
@@ -58559,13 +58600,13 @@
         <v>31</v>
       </c>
       <c r="C2500" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2500" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H2500">
-        <v>27545</v>
+        <v>27266</v>
       </c>
     </row>
     <row r="2501" spans="1:8" x14ac:dyDescent="0.25">
@@ -58576,47 +58617,47 @@
         <v>31</v>
       </c>
       <c r="C2501" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2501" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H2501">
-        <v>33737</v>
+        <v>27267</v>
       </c>
     </row>
     <row r="2502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2502" t="s">
+        <v>1162</v>
+      </c>
       <c r="B2502" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2502" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2502" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E2502" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H2502">
-        <v>33739</v>
+        <v>27545</v>
       </c>
     </row>
     <row r="2503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2503" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B2503" t="s">
         <v>31</v>
       </c>
       <c r="C2503" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2503" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H2503">
-        <v>33738</v>
+        <v>33737</v>
       </c>
     </row>
     <row r="2504" spans="1:8" x14ac:dyDescent="0.25">
@@ -58624,117 +58665,165 @@
         <v>9</v>
       </c>
       <c r="C2504" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2504" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="E2504" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="H2504">
-        <v>33740</v>
+        <v>33739</v>
       </c>
     </row>
     <row r="2505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2505" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B2505" t="s">
         <v>31</v>
       </c>
       <c r="C2505" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2505" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H2505">
-        <v>27005</v>
+        <v>33738</v>
       </c>
     </row>
     <row r="2506" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2506" t="s">
-        <v>507</v>
-      </c>
       <c r="B2506" t="s">
         <v>9</v>
       </c>
       <c r="C2506" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2506" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="E2506" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="H2506">
-        <v>27007</v>
+        <v>33740</v>
       </c>
     </row>
     <row r="2507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2507" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B2507" t="s">
         <v>31</v>
       </c>
       <c r="C2507" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2507" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H2507">
-        <v>27021</v>
+        <v>27005</v>
       </c>
     </row>
     <row r="2508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2508" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2508" t="s">
         <v>9</v>
       </c>
       <c r="C2508" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2508" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="E2508" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H2508">
-        <v>27006</v>
+        <v>27007</v>
       </c>
     </row>
     <row r="2509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2509" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B2509" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C2509" t="s">
-        <v>1115</v>
+        <v>1117</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>1159</v>
       </c>
       <c r="H2509">
-        <v>27058</v>
+        <v>27021</v>
       </c>
     </row>
     <row r="2510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2510" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H2510">
+        <v>27006</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2511" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H2511">
+        <v>27058</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2512" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H2512">
+        <v>27302</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2513" t="s">
         <v>503</v>
       </c>
-      <c r="B2510" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2510" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H2510">
+      <c r="B2513" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H2513">
         <v>11323</v>
       </c>
     </row>

--- a/Microsoft 365/Current Channel/outlooklogitemcontrols.xlsx
+++ b/Microsoft 365/Current Channel/outlooklogitemcontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\CCNov2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\CCJan2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C2DA0E-203C-4175-9F40-165932C5AB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9E4BFE-EA02-4D07-9BAC-47A5F29F584B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5415" windowWidth="51600" windowHeight="15465"/>
+    <workbookView xWindow="2850" yWindow="4260" windowWidth="25470" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="outlooklogitemcontrols" sheetId="1" r:id="rId1"/>
